--- a/tabular/extension/bovine/bovine-refseqs.xlsx
+++ b/tabular/extension/bovine/bovine-refseqs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/retrovirus/Lentivirus-GLUE/tabular/extension/bovine/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61700D00-DE6D-AF49-A26F-84E8F37ADD1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26CA817-73D6-C242-A64C-BE7993AA0916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21200" yWindow="4460" windowWidth="28060" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="47">
   <si>
     <t>Accession</t>
   </si>
@@ -680,7 +680,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -743,7 +743,9 @@
       <c r="D2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="F2" s="4" t="s">
         <v>26</v>
       </c>
@@ -779,7 +781,9 @@
       <c r="D3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="F3" s="4" t="s">
         <v>26</v>
       </c>
